--- a/副本财务系统数据库设计v1.0.xlsx
+++ b/副本财务系统数据库设计v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\库备份\文档\gitwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mywork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="8085" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="借支单" sheetId="1" r:id="rId1"/>
@@ -2437,47 +2437,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>值域说明清楚，不级联，英文名不好，改成payType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当财务确认时必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该是申请日期，还要加一个支付日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.应该增加一个收款账户，不然账户明细表无法登记；还要有一个实际到账日期，在财务确认的时候填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.合同金额和已付金额应该都是计算字段，不应该在这里出现；实际上如果支出确认了那么这个支出是要写到项目表中的，所以这两个字段是从项目管理系统中计算出来的；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.应该增加一个付款账户，不然账户明细表无法登记；还要有一个支付日期，在财务确认的时候填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.还有借款管理和工资管理的表你没有设计？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额我们一般使用numeric(15,2)类型，money的类型小数位是4位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该设计成审批环节，另外要增加一个审批状态字段，要规定出来所有的取值情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>值域说明清楚，英文名不好，改成incomeType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值域说明清楚，不级联，英文名不好，改成payType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当财务确认时必填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该是申请日期，还要加一个支付日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.应该增加一个收款账户，不然账户明细表无法登记；还要有一个实际到账日期，在财务确认的时候填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.合同金额和已付金额应该都是计算字段，不应该在这里出现；实际上如果支出确认了那么这个支出是要写到项目表中的，所以这两个字段是从项目管理系统中计算出来的；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.应该增加一个付款账户，不然账户明细表无法登记；还要有一个支付日期，在财务确认的时候填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.还有借款管理和工资管理的表你没有设计？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额我们一般使用numeric(15,2)类型，money的类型小数位是4位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该设计成审批环节，另外要增加一个审批状态字段，要规定出来所有的取值情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3938,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4175,10 +4175,10 @@
         <v>603</v>
       </c>
       <c r="I13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -4401,7 +4401,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
@@ -4426,7 +4426,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4674,10 +4674,10 @@
         <v>603</v>
       </c>
       <c r="I13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -4694,7 +4694,7 @@
         <v>584</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -4901,17 +4901,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
@@ -5081,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -5305,7 +5305,7 @@
         <v>72</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -5434,7 +5434,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B21" t="s">
         <v>198</v>
@@ -5446,7 +5446,7 @@
         <v>72</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -7344,7 +7344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
